--- a/compare_out/edgeR_vs_Published/edgeR_vs_Published_Summary.xlsx
+++ b/compare_out/edgeR_vs_Published/edgeR_vs_Published_Summary.xlsx
@@ -16,12 +16,14 @@
     <sheet name="intersect_DOWN" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="only_A_DOWN" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="only_B_DOWN" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pairs_disagree" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Diagnostics" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
   <si>
     <t xml:space="preserve">row_label</t>
   </si>
@@ -1011,6 +1013,591 @@
   </si>
   <si>
     <t xml:space="preserve">FBgn0263479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logFC_edgeR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qval_edgeR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logFC_Published</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qval_Published</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direction_agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_logFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs_delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0004186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ns_both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0260817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0036337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0000055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0000370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0036537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0085248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0262855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0063449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0040339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0038146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0008636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0038972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0044511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0003963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0036302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0025814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0010504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0017551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0085284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0005677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0024245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0050104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0026722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0002789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0003567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0040606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0052380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0013765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0086370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0001491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0011742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0002780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0041164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0013751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0001197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0022702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0250753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0010356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0017572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0259209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0001248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0086687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0052485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0042175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0050015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0011726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0260439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0029849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0261573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0261439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0261786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0004055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0029123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0025700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0263934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0031814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0015790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0020255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0000667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0266599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0039229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0015360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0038387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0036814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0264087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0004512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0034071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0085279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0027497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0032884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0038926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0086442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0005427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0040718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0261641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0052695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0037465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0029822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0260487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0266084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0028538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0052666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0036553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0002872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0033402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0051040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0262719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0030869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBgn0035968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_overlap_genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mae_logFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmse_logFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias_logFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_disagree_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_disagree_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_sig_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_sig_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_only_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_only_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aonly_q_in_B_share_0.05_0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aonly_q_in_B_share_&lt;=0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonly_q_in_A_share_0.05_0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonly_q_in_A_share_&lt;=0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgeR_vs_Published</t>
   </si>
 </sst>
 </file>
@@ -1597,6 +2184,6055 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.15649320882577</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.284735373281551</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.15649320882577</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.15649320882577</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.0839477171412208</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.669490874848309</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0976793546617286</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.181627071802949</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.181627071802949</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.109411081534055</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.740736759167129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0650728849080395</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.898384741082824</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.174483966442095</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.174483966442095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0380265027695147</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.928205455800821</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.107261259884281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.145287762653796</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.145287762653796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0474617177071665</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.827422025846791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0644097895303614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.944887571808005</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.111871507237528</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.111871507237528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0350811493154982</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.849263521094147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.0629202315851065</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.726645491375414</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.0980013809006047</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0980013809006047</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0648827018353234</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.815244481107207</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0162287056208659</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.0811114074561893</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0811114074561893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.00422955469080854</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.986816864551056</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0755871496473741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.986409372514425</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0798167043381827</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0798167043381827</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.073832462878459</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.802595091330015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.073832462878459</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.073832462878459</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0420208193783786</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.925024688660547</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.0314027475592343</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>341</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.0734235669376129</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0734235669376129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0393945920141167</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.970055652796963</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.0290971530208602</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.0684917450349769</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0684917450349769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0347289664141414</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.903940766067461</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0259378615707122</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.0606668279848536</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0606668279848536</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0267579183719323</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.94564508613827</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0322759432275491</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>341</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.0590338615994814</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0590338615994814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0503847043981948</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.917093426448726</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.00777981226647414</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>341</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0581645166646689</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0581645166646689</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00618156537751066</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.988533258284657</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.0457773475305127</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.0519589129080234</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0519589129080234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0050034681502441</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.991730015409434</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0466880902949585</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>341</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0516915584452026</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0516915584452026</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.00330068569947044</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.993696436560846</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.0482386009813445</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>341</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.0515392866808149</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0515392866808149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0280186494032298</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.925690225126922</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.0179127852593035</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>341</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.0459314346625333</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0459314346625333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0356220249921081</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.894717800670419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.00937836886834747</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>341</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.0450003938604556</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0450003938604556</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0398493287653022</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.887837236482102</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.00448727237321858</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>341</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.0443366011385208</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0443366011385208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0223622167313308</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.93212093915366</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.0216752966353568</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>341</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.0440375133666876</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0440375133666876</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0203592991912416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.933947212099989</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.0232147740233419</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>341</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.0435740732145835</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0435740732145835</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.011524194158327</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.967795802464049</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.0295713297814732</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>341</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.0410955239398002</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0410955239398002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0320011314367465</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.925690225126922</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.00889516720191371</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.0408962986386602</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0408962986386602</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0313933908962267</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.947572069572811</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.00859885088342323</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>341</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.0399922417796499</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0399922417796499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0262534456961627</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.932598922150994</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.01312288232005</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>341</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.0393763280162127</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0393763280162127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0282819821240823</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.946746625352413</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.0103259324897246</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>341</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.0386079146138069</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0386079146138069</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0133913034853965</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.969752966946561</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.0237796969281783</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>341</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.0371710004135748</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0371710004135748</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0122826130332798</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.966582464273939</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.0241104727812828</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>341</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.0363930858145626</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0363930858145626</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0311655812501245</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.912582292233707</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.00483375227153255</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>341</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.035999333521657</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.035999333521657</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0168121530186434</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.96908750055499</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.0186521871126655</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>341</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.0354643401313089</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0354643401313089</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00500315019593269</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.988599160181146</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.0297860608322778</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>341</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.0347892110282105</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0347892110282105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.00952241206734195</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.976797622872169</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.0239504309748029</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>341</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.0334728430421449</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0334728430421449</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.00283468803775605</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.988599160181146</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.0303469520177359</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.033181640055492</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.033181640055492</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0298881243418534</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.881285313498849</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.0025485897532326</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.032436714095086</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.032436714095086</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.0214966444259799</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.892210572545805</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.00999425036180129</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0314908947877812</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0314908947877812</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0271902078967344</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.931545276274851</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.00201497204791818</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.0292051799446526</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0292051799446526</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0241204090902853</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.941797194530626</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.00484771052624883</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.0289681196165341</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0289681196165341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0216341208248532</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.905879006609304</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.00684734704757268</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.0284814678724259</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0284814678724259</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0170313387624886</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.954713193686565</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0106871585747824</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.027718497337271</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.027718497337271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0248553775110642</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.925690225126922</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.00227942799309443</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.0271348055041586</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0271348055041586</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>382</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.00717675405729107</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.0197126926733694</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.0268894467306605</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0268894467306605</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.00840295290871077</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.959610174424922</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.0179999436616788</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.0264028965703896</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0264028965703896</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0150992958662294</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.938771936470215</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.0112325031623571</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.0263317990285865</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0263317990285865</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0260028253643437</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.901263984039544</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.0000377345485179228</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.0260405599128616</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0260405599128616</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0163236610374389</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.947760201090714</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.00940155036780894</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.0257252114052478</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0257252114052478</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0140714599468462</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.975313499449612</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.0116527059828615</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.0257241659297077</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0257241659297077</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.019540727704611</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.957469647856065</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.00594516593045448</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.0254858936350655</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0254858936350655</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.00126182479121407</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.995025783119345</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.0239125281122263</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.0251743529034404</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0251743529034404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0243894180775988</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.930351263645899</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.000725295632273024</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.0251147137098718</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0251147137098718</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0143140039425571</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.95181783932301</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.0105839567221836</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>341</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.0248979606647407</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0248979606647407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>392</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0111315333660306</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.976395501569482</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.0137174054832258</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>341</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.0248489388492564</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0248489388492564</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00396042574464686</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.983949889083263</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.020873736059827</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.0248341618044739</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0248341618044739</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.00395779672791176</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.988570568432852</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.0203237267478677</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.0242815234757795</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0242815234757795</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>395</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0186777396741114</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.919950622481313</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.00519280552664862</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.02387054520076</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.02387054520076</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0171906753927723</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.93770462231874</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.00661252343951571</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.023803198832288</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.023803198832288</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0007311894210731</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.997446248920654</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.0219998404461971</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.0227310298672702</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0227310298672702</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00176304174646676</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.99288186961626</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.0208804513805675</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.0226434931270343</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0226434931270343</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0114685650163547</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.964536046550337</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.0104554185058944</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.0219239835222491</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0219239835222491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>400</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0174446186015005</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.934251320774079</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.00447854684294774</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.0219231654444482</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0219231654444482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>401</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0183915839413668</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.956333644349567</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.0032568643009808</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>341</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.0216484482423476</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0216484482423476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>402</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.00795586623676387</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.958120143096959</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.0135269950831278</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>341</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.0214828613198917</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0214828613198917</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0146425632685093</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.988570568432852</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.00667731464706055</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>341</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.0213198779155699</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0213198779155699</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>404</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0202554203413725</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.896148113077815</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.000993133146354888</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>341</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.0212485534877274</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0212485534877274</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.00463012131361088</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.976797622872169</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.0165912274044345</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.0212213487180454</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0212213487180454</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.00644279906302597</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.971545533720632</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.0147532682740113</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>341</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.0211960673370373</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0211960673370373</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.00689811336492194</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.970369434898427</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.0139905156074217</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>341</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.0208886289723436</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0208886289723436</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0117848584650934</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.92910893818174</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.00907949451575859</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>341</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.020864352980852</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.020864352980852</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.00126412193831182</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.995286160809323</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.0195299225549582</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>341</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.02079404449327</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.02079404449327</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>410</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0147898691463474</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.924196144330846</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.0058038538963532</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>341</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.0205937230427006</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0205937230427006</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>411</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0158254921483579</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.966654071595406</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.00476632458755375</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>341</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.0205918167359116</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0205918167359116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>412</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0161914699908083</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.956333644349567</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.00418931901221279</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>341</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.0203807890030211</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0203807890030211</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0171394906098788</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.928490199285846</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.00309974681788068</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>341</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.0202392374277595</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0202392374277595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0130048955807396</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.971545533720632</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.00716622890942586</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>341</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.0201711244901655</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0201711244901655</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.014049062700956</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.925690225126922</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.00607776331335197</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>341</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.020126826014308</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.020126826014308</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.00026118321399822</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.998833000974303</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.0198006167450601</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>341</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.0200617999590583</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0200617999590583</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00343620677525189</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.982832812177774</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.016526856772513</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>341</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.0199630635477649</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0199630635477649</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0165963312262317</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.922432592637847</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.00328310447813595</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>341</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.0198794357043676</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0198794357043676</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0132715733827113</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.925690225126922</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.00639690981397948</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>341</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.0196684831966908</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0196684831966908</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0179664148421134</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.924628589371734</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.00166338728911016</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>341</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.0196298021312236</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0196298021312236</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0116756009355352</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.970671353012384</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.00785836355142755</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>341</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.0195339644869627</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0195339644869627</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.010933753236566</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.958931197319913</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.00858486712426036</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>341</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.0195186203608264</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0195186203608264</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0167605097664793</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.953904503011641</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.00273974012000719</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>341</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.0195002498864865</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0195002498864865</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.00707828312517937</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.984496937841043</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.0123752420602865</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>341</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.0194535251854659</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0194535251854659</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.00143613953738661</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.996488551717819</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.0179332912292867</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>341</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.0193694307666733</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0193694307666733</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>426</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0110239816719363</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.948217096549301</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.0081873403031481</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>341</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.0192113219750844</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0192113219750844</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>427</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0149157127889903</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.933854643130907</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.00428160528211702</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>341</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.0191973180711073</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0191973180711073</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.00172196290525957</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.990947811799052</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.0174655238729543</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>341</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.0191874867782139</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0191874867782139</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0000216483839977392</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.99996926244025</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.0189884944347057</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.0190101428187034</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0190101428187034</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>430</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.00099693843474706</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.997446248920654</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.0179973309419302</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>341</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.0189942693766773</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0189942693766773</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0100486879449603</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.97579279972015</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.00891870162204021</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>341</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.0189673895670005</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0189673895670005</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>432</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0110955482354865</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.959610174424922</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.0078395437355914</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>341</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.0189350919710779</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0189350919710779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>433</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0179256553963021</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.917405099245831</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.000700666302629087</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>341</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.0186263216989312</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0186263216989312</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.00547174770277083</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.983521406417765</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.0128689030471462</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>341</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.018340650749917</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.018340650749917</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>435</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0115273134396119</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.943032191098586</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.00665582837229702</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>341</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.0181831418119089</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0181831418119089</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>436</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.00830321185216702</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.97490588160799</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.0095661542825768</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>341</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.0178693661347438</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0178693661347438</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>437</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0173040497911507</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.914878610292367</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.000333564335057861</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>341</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.0176376141262086</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0176376141262086</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.00245947560970536</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.996355062224234</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.0150587106306997</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>341</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.0175181862404051</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0175181862404051</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0163554901017644</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.931545276274851</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.0011375667314738</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>341</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.0174930568332382</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0174930568332382</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0100553538921953</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.956333644349567</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.00733286005230666</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>341</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.017388213944502</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.017388213944502</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.00073631458216271</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.996839747492303</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.016638597363291</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>341</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.0173749119454537</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0173749119454537</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.00093644346909871</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.994962576325872</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.016437094232571</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>341</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.0173735377016697</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0173735377016697</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>443</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0022797112400864</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.993696436560846</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.0150575366838589</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>341</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.0173372479239453</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0173372479239453</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>444</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0172315571511545</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.971545533720632</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>341</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.0172315571511545</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.0172315571511545</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>445</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0170197127302555</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.953201376638992</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.000000536612790545637</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>341</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.017020249343046</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.017020249343046</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.00431857672462204</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.981615498663238</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.0126304773116215</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>341</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.0169490540362435</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0169490540362435</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.00245857527608184</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.984881328762457</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.0144788214799177</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>341</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.0169373967559995</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0169373967559995</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>448</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0150048685782179</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.950067111634191</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.00192105336326082</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>341</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.0169259219414787</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0169259219414787</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.012471154541306</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.95083096126685</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.00401881778852247</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>341</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.0164899723298285</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0164899723298285</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.00179337548066413</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.993168312846857</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.0146515907184043</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>341</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.0164449661990684</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0164449661990684</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0110329576680872</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.957922077747657</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.00529387320087344</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>341</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.0163268308689606</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0163268308689606</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.010763705961622</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.954713193686565</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.00543384528614968</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>341</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.0161975512477717</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0161975512477717</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>453</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00216658328268253</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.988574462962153</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.0139942685120037</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>341</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.0161608517946862</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0161608517946862</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>454</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.00911923708017216</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.948530239333843</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.00700526683777184</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>341</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.016124503917944</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.016124503917944</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.0095943166614337</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.967740673041694</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.00638352729233664</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>341</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.0159778439537703</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0159778439537703</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0139879641767411</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.962737025196955</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.00187497952555993</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>341</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.015862943702301</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.015862943702301</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.00705198780465299</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.966619067761307</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.00877171747729082</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>341</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.0158237052819438</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0158237052819438</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>458</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.00604400290657787</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.968649048367353</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.00973700987070109</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>341</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.015781012777279</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.015781012777279</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.00597360401007099</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.984881328762457</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.00972834463494975</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>341</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.0157019486450207</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.0157019486450207</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>460</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.00793949385869425</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.00771214817820454</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>341</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.0156516420368988</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.0156516420368988</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>461</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.00907615679610584</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.979248500006108</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.00643778957727532</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>341</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.0155139463733812</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.0155139463733812</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>462</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.00826056302674791</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.961588607240699</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.00717453542637939</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>341</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.0154350984531273</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.0154350984531273</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.00223354853646659</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.993011212482329</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.0130528833770211</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>341</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.0152864319134877</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.0152864319134877</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>464</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0077130805572154</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.957265637337991</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.00749236276706417</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>341</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.0152054433242796</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.0152054433242796</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>465</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.0103683990142586</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.941797194530626</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.00468528056687614</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>341</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.0150536795811347</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.0150536795811347</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>466</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.00595053192310102</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.96908750055499</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.00874163318251368</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>341</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.0146921651056147</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.0146921651056147</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.0118470116121791</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.964387921758087</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.00263133372916188</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>341</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.014478345341341</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.014478345341341</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0083152425793184</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.97757732514158</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.0061071398356813</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>341</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.0144223824149997</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.0144223824149997</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>469</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0013760734435545</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.99288186961626</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.0128685260938924</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>341</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.0142445995374469</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.0142445995374469</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>470</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.00279037593106896</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.991730015409434</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.0111668185009238</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>341</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.0139571944319928</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.0139571944319928</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>471</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.00564003279690533</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.97579279972015</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.00820789757175266</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>341</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.013847930368658</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.013847930368658</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>472</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.00532302501507061</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.993327682211691</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.00826377963153587</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>341</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.0135868046466065</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0135868046466065</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>473</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0006127322400828</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.997616891077075</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.0129361533834754</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>341</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.0135488856235582</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.0135488856235582</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>474</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0077733288929024</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.979633539732363</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.00573085848588378</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>341</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.0135041873787862</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0135041873787862</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>475</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.00799945143432134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.988570568432852</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.00498168490656248</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>341</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.0129811363408838</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0129811363408838</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.00677286894689274</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.965352179717051</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.00618154326601555</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>341</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.0129544122129083</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0129544122129083</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>477</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.00309625312478815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.992283564505545</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.00982283084881036</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>341</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.0129190839735985</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0129190839735985</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>478</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0028163627392772</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.988599160181146</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.010064654773991</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>341</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.0128810175132682</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0128810175132682</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0052238128781554</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.985227787996237</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.00760828130717722</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>341</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.0128320941853326</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0128320941853326</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>480</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0089861099946595</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.977674372170331</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.00370890994064753</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>341</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0.012695019935307</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.012695019935307</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>481</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.00191499784299764</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.991401866559821</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.0107493641702376</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>341</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.0126643620132352</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.0126643620132352</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>482</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.00078200346496172</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.997446248920654</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.0117144318346909</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>341</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.0124964352996526</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.0124964352996526</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>483</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.0106130693808371</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.966619067761307</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.00188171587920951</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>341</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.0124947852600466</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.0124947852600466</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.00510550775128687</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.00731259523009697</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>341</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.0124181029813838</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.0124181029813838</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>485</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0115765740462448</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.953201376638992</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.000794347242926748</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>341</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.0123709212891715</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.0123709212891715</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>486</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.0118166784398371</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.938033058048282</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.000511130403301729</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>341</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.0123278088431388</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0123278088431388</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.00647439251820875</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.98142519951548</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.00581215954057803</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>341</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.0122865520587868</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.0122865520587868</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>488</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.00132928415975393</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.993327682211691</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.0109078546135575</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>341</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.0122371387733114</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.0122371387733114</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>489</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.00748021601193552</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.959007254809532</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.00468736562563794</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>341</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.0121675816375735</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0121675816375735</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>490</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00669411358541278</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.970369434898427</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.00491399208480008</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>341</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.0116081056702129</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.0116081056702129</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>491</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.00779525479890765</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.973567807681135</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.00336588732377355</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>341</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.0111611421226812</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.0111611421226812</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>492</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0050986167579121</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.989853211380643</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.0059504876962103</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>341</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-0.0110491044541224</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.0110491044541224</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>493</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.00699804682680878</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.976815563145522</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.00390488390815062</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>341</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.0109029307349594</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.0109029307349594</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>494</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0104538436453498</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.976395501569482</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.000337831370992015</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>341</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.0107916750163418</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.0107916750163418</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>495</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.00459576871623142</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.997199907837077</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.00603627847660969</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>341</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.0106320471928411</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.0106320471928411</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>496</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.00427550303081131</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.978414134871713</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.00629432033084371</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>341</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.010569823361655</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.010569823361655</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>497</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.00558434704902589</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.00482131058996492</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>341</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0.0104056576389908</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.0104056576389908</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>498</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.00237232576397944</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.994962576325872</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.00786586703743067</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>341</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.0102381928014101</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.0102381928014101</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>499</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.00768060401214773</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.00219087975643738</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>341</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.00987148376858511</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.00987148376858511</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>500</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.00655275976266914</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.982394262143529</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.00326276580012095</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>341</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.00981552556279009</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.00981552556279009</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>501</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.00811098465639475</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.972774364783951</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.000797525007521473</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>341</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.00890850966391622</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.00890850966391622</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>502</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.00067240418823118</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.997446248920654</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.00790597127387069</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>341</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.00857837546210187</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.00857837546210187</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>503</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.00044635039328297</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.998722189735822</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.00804532613911701</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>341</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.00849167653239998</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.00849167653239998</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>504</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.007712049670264</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.971356443805759</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.000292901774711796</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>341</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.0080049514449758</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.0080049514449758</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>505</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.00540941442583654</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.978833111585809</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.00201105476258689</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>341</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.00742046918842343</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.00742046918842343</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>506</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.00414687824273579</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.992771402178447</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.0032532532492307</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>341</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.00740013149196649</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.00740013149196649</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>507</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.00391604591363452</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.986654917431913</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.00296127719039239</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>341</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.00687732310402691</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.00687732310402691</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>508</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.00302156523843495</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.98995967750515</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.00210582482644991</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>341</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.00512739006488486</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.00512739006488486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6593</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0197774077629045</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.048698882171603</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0155247319481106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>168</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>248</v>
+      </c>
+      <c r="I2" t="n">
+        <v>216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83</v>
+      </c>
+      <c r="K2" t="n">
+        <v>51</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7188</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.7667</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6222</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
